--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,328 +512,448 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.30</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>519656</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>银河灵活配置混合 - A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>60.30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>519657</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>银河灵活配置混合 - C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>60.30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004788</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004789</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001382</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达国企改革混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009937</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009938</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010058</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘荣创一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>27.38</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010218</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中金瑞泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>60.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003582</t>
+          <t>004788</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金量化多策略灵活配置混合</t>
+          <t>富荣沪深300指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.30</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>004789</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>富荣沪深300指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>000176</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>嘉实沪深300指数研究增强</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006009</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合A</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006010</t>
+          <t>001166</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合C</t>
+          <t>建信环保产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>003295</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>南方安裕混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>008209</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>南方宝泰一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>30.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>009937</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>东方欣益一年持有期偏债混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>19.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000042</t>
+          <t>008513</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+          <t>南方宝丰混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003184</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000176</t>
+          <t>002660</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实沪深300指数研究增强</t>
+          <t>兴业聚源灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007251</t>
+          <t>001547</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合</t>
+          <t>兴业聚惠灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31.96</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009937</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合A</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009938</t>
+          <t>002668</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合C</t>
+          <t>兴业聚丰灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001166</t>
+          <t>010781</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>建信环保产业股票</t>
+          <t>兴业聚申一年持有期混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010781</t>
+          <t>007251</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴业聚申一年持有期混合A</t>
+          <t>广发睿享稳健增利混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010782</t>
+          <t>002923</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴业聚申一年持有期混合C</t>
+          <t>兴业聚惠灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007381</t>
+          <t>008210</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合A</t>
+          <t>南方宝泰一年持有期混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007382</t>
+          <t>007381</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合C</t>
+          <t>国融融信消费严选混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>84.84</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>6.24</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>003582</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>中金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>52.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001547</t>
+          <t>000042</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>兴业聚惠灵活配置混合A</t>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002923</t>
+          <t>009938</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>兴业聚惠灵活配置混合C</t>
+          <t>东方欣益一年持有期偏债混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>008514</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>南方宝丰混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002660</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴业聚源灵活配置混合</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002668</t>
+          <t>007382</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴业聚丰灵活配置混合</t>
+          <t>国融融信消费严选混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003295</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>南方安裕混合A</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008209</t>
+          <t>010782</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>南方宝泰一年持有期混合A</t>
+          <t>兴业聚申一年持有期混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008210</t>
+          <t>006009</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>南方宝泰一年持有期混合C</t>
+          <t>国融融银灵活配置混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>004788</t>
+          <t>006010</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>富荣沪深300指数增强A</t>
+          <t>国融融银灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>80.97</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>004789</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>富荣沪深300指数增强C</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>80.97</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1798,26 +2268,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008513</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南方宝丰混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1826,26 +2300,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008514</t>
+          <t>003184</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>南方宝丰混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2276,7 +2277,6 @@
           <t>国融融君灵活配置混合C</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>84.76</t>
@@ -2308,7 +2308,6 @@
           <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>94.48</t>
@@ -2324,6 +2323,1316 @@
       </c>
       <c r="H36" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3638,4 +3639,1466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5101,4 +5102,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5110,7 +5111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5121,17 +5122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5141,14 +5162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.02</v>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5157,14 +5200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.16</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5173,14 +5238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.57</v>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5189,13 +5276,1405 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000708</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>57.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6573,7 +6574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6584,17 +6585,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6604,14 +6625,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.130000000000001</v>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6620,14 +6663,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.02</v>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6636,14 +6701,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.16</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6652,14 +6739,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.57</v>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6668,13 +6777,963 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004517</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方安康混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7616,7 +7617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7627,17 +7628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7647,14 +7668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.5</v>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>157.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7663,14 +7706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.130000000000001</v>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7679,14 +7744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.02</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7695,14 +7782,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.16</v>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7711,14 +7820,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.57</v>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3548</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -7727,13 +7858,1205 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>6.08</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>5.5</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>8.130000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>9.02</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>4.16</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>4.57</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.62</v>
       </c>
     </row>
@@ -600,6 +617,1960 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘裕新混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘恒新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011051</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘裕新混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘恒新混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1905,7 +3876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2940,1468 +4911,6 @@
       </c>
       <c r="H27" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>202101</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方宝元债券A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>168.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4832</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0447</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001857</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达现代服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7457</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5739</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5596</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4042</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012370</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华鑫利一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3468</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>202009</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方盛元红利混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2637</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>35.68</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2582</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011698</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方均衡回报混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>49.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2516</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008209</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方宝泰一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>23.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2382</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003295</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方安裕混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>31.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.36</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2109</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001667</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方转型增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2096</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010551</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>淳厚欣颐一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1724</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006586</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方安裕混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>23.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>21.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1629</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010881</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方宝顺混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>52.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1579</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011349</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1471</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006585</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方宝元债券C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>15.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>27.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1406</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>76.45</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1283</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>31.41</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1117</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>013678</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国信享回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0961</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008513</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方宝丰混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>23.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20.33</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0899</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>83.46</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0546</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>512390</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>平安MSCI中国A股低波动ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>98.63</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008210</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>南方宝泰一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.88</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>013679</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国信享回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>76.45</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011350</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000708</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华安安享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20.58</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>162212</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰达宏利红利先锋混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008514</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>南方宝丰混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20.33</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>31.41</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>011701</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>南方均衡回报混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>49.90</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010882</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>南方宝顺混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>83.46</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>57.38</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +4945,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4466,36 +4975,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>南方宝元债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.74</t>
+          <t>168.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6157</t>
+          <t>1.4832</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4504,36 +5013,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方宝元债券A</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>173.11</t>
+          <t>46.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.54</t>
+          <t>78.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5753</t>
+          <t>1.0447</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4542,36 +5051,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>001857</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>易方达现代服务业灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.60</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.19</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4347</t>
+          <t>0.7457</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4580,36 +5089,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003295</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方安裕混合A</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>42.70</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.53</t>
+          <t>79.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3843</t>
+          <t>0.5739</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4618,36 +5127,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001857</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达现代服务业灵活配置混合</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>23.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.18</t>
+          <t>78.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3488</t>
+          <t>0.5596</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4656,32 +5165,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方盛元红利混合</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2776</t>
+          <t>0.4042</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -4694,36 +5203,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008209</t>
+          <t>012370</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方宝泰一年持有期混合A</t>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>82.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2405</t>
+          <t>0.3468</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4732,36 +5241,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>南方盛元红利混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.53</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2117</t>
+          <t>0.2637</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -4770,36 +5279,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008513</t>
+          <t>002768</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方宝丰混合A</t>
+          <t>华安安进灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.67</t>
+          <t>18.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20.86</t>
+          <t>35.68</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2059</t>
+          <t>0.2582</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -4808,36 +5317,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>011698</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>南方均衡回报混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1721</t>
+          <t>0.2516</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -4846,36 +5355,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>008209</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>南方宝泰一年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>23.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.54</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1612</t>
+          <t>0.2382</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -4884,32 +5393,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011698</t>
+          <t>003295</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方均衡回报混合型证券投资基金A</t>
+          <t>南方安裕混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>31.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>51.12</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1570</t>
+          <t>0.2109</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4922,36 +5431,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001127</t>
+          <t>001667</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银宏观策略灵活配置混合</t>
+          <t>南方转型增长灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>74.45</t>
+          <t>89.37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1536</t>
+          <t>0.2096</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -4960,36 +5469,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011160</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国质量成长6个月持有期混合A</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.02</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1209</t>
+          <t>0.1724</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -4998,36 +5507,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001667</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方转型增长灵活配置混合</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>23.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1207</t>
+          <t>0.1629</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -5036,36 +5545,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>010881</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>南方宝顺混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>52.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1138</t>
+          <t>0.1579</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -5074,36 +5583,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010415</t>
+          <t>011349</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量精选混合A</t>
+          <t>淳厚现代服务业股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1471</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -5112,36 +5621,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>006585</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1024</t>
+          <t>0.1406</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -5150,36 +5659,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>450010</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国富策略回报混合</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.41</t>
+          <t>76.45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0967</t>
+          <t>0.1283</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -5188,36 +5697,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>070017</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实量化阿尔法混合</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>31.41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.1117</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -5226,36 +5735,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>512390</t>
+          <t>013678</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>平安MSCI中国A股低波动ETF</t>
+          <t>富国信享回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>98.21</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0601</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -5264,32 +5773,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008210</t>
+          <t>008513</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方宝泰一年持有期混合C</t>
+          <t>南方宝丰混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>23.67</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0899</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -5302,36 +5811,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005553</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>83.46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0465</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -5340,36 +5849,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002025</t>
+          <t>512390</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合A</t>
+          <t>平安MSCI中国A股低波动ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21.17</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0487</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -5378,36 +5887,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002768</t>
+          <t>008210</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华安安进灵活配置混合</t>
+          <t>南方宝泰一年持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24.56</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0416</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -5416,36 +5925,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>450007</t>
+          <t>013679</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国富成长动力混合</t>
+          <t>富国信享回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>82.89</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -5454,36 +5963,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004549</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>富安达消费主题灵活配置混合</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>76.45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -5492,36 +6001,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000120</t>
+          <t>011350</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中银美丽中国混合</t>
+          <t>淳厚现代服务业股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -5530,36 +6039,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005545</t>
+          <t>000708</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中银改革红利灵活配置混合</t>
+          <t>华安安享灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>74.30</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -5568,32 +6077,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000591</t>
+          <t>162212</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中银健康生活混合</t>
+          <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -5606,36 +6115,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011701</t>
+          <t>008514</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>南方均衡回报混合型证券投资基金C</t>
+          <t>南方宝丰混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>51.12</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -5644,36 +6153,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008514</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南方宝丰混合C</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20.86</t>
+          <t>31.41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -5682,36 +6191,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>011701</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>南方均衡回报混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -5720,36 +6229,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002026</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21.17</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -5758,36 +6267,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>000761</t>
+          <t>010882</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国富健康优质生活股票</t>
+          <t>南方宝顺混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>88.87</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -5796,36 +6305,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>010416</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量精选混合C</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>83.46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -5834,32 +6343,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011161</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>富国质量成长6个月持有期混合C</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>80.02</t>
+          <t>57.38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -5872,6 +6381,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7181,7 +9152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8553,7 +10524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600886-国投电力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>7.53</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>6.08</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>5.5</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>8.130000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>9.02</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>4.16</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>4.57</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1146,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009689</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010839</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009690</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>山西证券裕桓一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010840</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2570,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3876,7 +5677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4911,1468 +6712,6 @@
       </c>
       <c r="H27" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>202101</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方宝元债券A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>168.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4832</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0447</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001857</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达现代服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7457</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5739</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5596</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4042</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012370</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华鑫利一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3468</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>202009</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方盛元红利混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2637</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>35.68</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2582</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011698</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方均衡回报混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>49.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2516</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008209</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方宝泰一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>23.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2382</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003295</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方安裕混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>31.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.36</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2109</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001667</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方转型增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2096</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010551</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>淳厚欣颐一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1724</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006586</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方安裕混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>23.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>21.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1629</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010881</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方宝顺混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>52.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1579</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011349</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1471</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006585</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方宝元债券C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>15.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>27.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1406</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>76.45</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1283</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>31.41</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1117</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>013678</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国信享回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0961</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008513</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方宝丰混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>23.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20.33</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0899</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>83.46</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0546</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>512390</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>平安MSCI中国A股低波动ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>98.63</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008210</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>南方宝泰一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.88</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>013679</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国信享回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>76.45</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011350</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000708</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华安安享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20.58</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>162212</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰达宏利红利先锋混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008514</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>南方宝丰混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20.33</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>31.41</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>011701</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>南方均衡回报混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>49.90</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010882</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>南方宝顺混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>83.46</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>57.38</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6407,7 +6746,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -6437,36 +6776,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>南方宝元债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.74</t>
+          <t>168.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6157</t>
+          <t>1.4832</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6475,36 +6814,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方宝元债券A</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>173.11</t>
+          <t>46.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.54</t>
+          <t>78.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5753</t>
+          <t>1.0447</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6513,36 +6852,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>001857</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>易方达现代服务业灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.60</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.19</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4347</t>
+          <t>0.7457</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6551,36 +6890,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003295</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方安裕混合A</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>42.70</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.53</t>
+          <t>79.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3843</t>
+          <t>0.5739</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6589,36 +6928,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001857</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达现代服务业灵活配置混合</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>23.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.18</t>
+          <t>78.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3488</t>
+          <t>0.5596</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -6627,32 +6966,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方盛元红利混合</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2776</t>
+          <t>0.4042</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -6665,36 +7004,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008209</t>
+          <t>012370</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方宝泰一年持有期混合A</t>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>82.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2405</t>
+          <t>0.3468</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -6703,36 +7042,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>南方盛元红利混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.53</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2117</t>
+          <t>0.2637</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -6741,36 +7080,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008513</t>
+          <t>002768</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方宝丰混合A</t>
+          <t>华安安进灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.67</t>
+          <t>18.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20.86</t>
+          <t>35.68</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2059</t>
+          <t>0.2582</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -6779,36 +7118,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>011698</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>南方均衡回报混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1721</t>
+          <t>0.2516</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -6817,36 +7156,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>008209</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>南方宝泰一年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>23.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.54</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1612</t>
+          <t>0.2382</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -6855,32 +7194,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011698</t>
+          <t>003295</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方均衡回报混合型证券投资基金A</t>
+          <t>南方安裕混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>31.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>51.12</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1570</t>
+          <t>0.2109</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -6893,36 +7232,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001127</t>
+          <t>001667</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银宏观策略灵活配置混合</t>
+          <t>南方转型增长灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>74.45</t>
+          <t>89.37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1536</t>
+          <t>0.2096</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -6931,36 +7270,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011160</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国质量成长6个月持有期混合A</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.02</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1209</t>
+          <t>0.1724</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -6969,36 +7308,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001667</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方转型增长灵活配置混合</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>23.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1207</t>
+          <t>0.1629</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -7007,36 +7346,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>010881</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>南方宝顺混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>52.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1138</t>
+          <t>0.1579</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -7045,36 +7384,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010415</t>
+          <t>011349</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量精选混合A</t>
+          <t>淳厚现代服务业股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1471</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -7083,36 +7422,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>006585</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1024</t>
+          <t>0.1406</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -7121,36 +7460,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>450010</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国富策略回报混合</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.41</t>
+          <t>76.45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0967</t>
+          <t>0.1283</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -7159,36 +7498,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>070017</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实量化阿尔法混合</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>31.41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.1117</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -7197,36 +7536,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>512390</t>
+          <t>013678</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>平安MSCI中国A股低波动ETF</t>
+          <t>富国信享回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>98.21</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0601</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -7235,32 +7574,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008210</t>
+          <t>008513</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方宝泰一年持有期混合C</t>
+          <t>南方宝丰混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>23.67</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0899</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -7273,36 +7612,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005553</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>83.46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0465</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -7311,36 +7650,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002025</t>
+          <t>512390</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合A</t>
+          <t>平安MSCI中国A股低波动ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21.17</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0487</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -7349,36 +7688,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002768</t>
+          <t>008210</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华安安进灵活配置混合</t>
+          <t>南方宝泰一年持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24.56</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0416</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -7387,36 +7726,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>450007</t>
+          <t>013679</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国富成长动力混合</t>
+          <t>富国信享回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>82.89</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -7425,36 +7764,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004549</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>富安达消费主题灵活配置混合</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>76.45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -7463,36 +7802,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000120</t>
+          <t>011350</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中银美丽中国混合</t>
+          <t>淳厚现代服务业股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -7501,36 +7840,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005545</t>
+          <t>000708</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中银改革红利灵活配置混合</t>
+          <t>华安安享灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>74.30</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -7539,32 +7878,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000591</t>
+          <t>162212</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中银健康生活混合</t>
+          <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -7577,36 +7916,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011701</t>
+          <t>008514</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>南方均衡回报混合型证券投资基金C</t>
+          <t>南方宝丰混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>51.12</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -7615,36 +7954,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008514</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南方宝丰混合C</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20.86</t>
+          <t>31.41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -7653,36 +7992,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>011701</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>南方均衡回报混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -7691,36 +8030,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002026</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合C</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21.17</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -7729,36 +8068,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>000761</t>
+          <t>010882</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国富健康优质生活股票</t>
+          <t>南方宝顺混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>88.87</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -7767,36 +8106,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>010416</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量精选混合C</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>83.46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -7805,32 +8144,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011161</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>富国质量成长6个月持有期混合C</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>80.02</t>
+          <t>57.38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -7843,6 +8182,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9152,7 +10953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10522,516 +12323,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001076</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达改革红利混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8222</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004789</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4719</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004788</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富荣沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3378</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2395</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001382</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达国企改革混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2310</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009937</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2069</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010218</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中金瑞泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1434</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0675</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519656</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0344</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010058</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘荣创一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.38</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009938</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519657</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>